--- a/testSElenium/Data_Main.xlsx
+++ b/testSElenium/Data_Main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnguyen4\Documents\Script_Tool-_JAZZ\testSElenium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdo2\Desktop\Script Tool\Src\testSElenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{55F44447-D2ED-41F7-BA8C-3F9A3AB4FDF7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757B62C6-E99F-4850-987B-165E92EA8695}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Main" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Num</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>CommandlineTest - Load configuration with Script Formatting from PC_Matrix M300N</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>CommandlineTest - Verify simulator M300N_Matrix M300N</t>
@@ -70,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -904,7 +901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -914,7 +911,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="78.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -949,7 +946,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -963,10 +960,10 @@
         <v>244407</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -980,10 +977,10 @@
         <v>244405</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -997,10 +994,10 @@
         <v>244403</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -1014,10 +1011,10 @@
         <v>244401</v>
       </c>
       <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -1025,7 +1022,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TestExecute-PC,TestComplete14_,TEST02-PC, None"</formula1>
     </dataValidation>
   </dataValidations>

--- a/testSElenium/Data_Main.xlsx
+++ b/testSElenium/Data_Main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdo2\Desktop\Script Tool\Src\testSElenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757B62C6-E99F-4850-987B-165E92EA8695}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360C24EA-6C8A-4ED0-8FB2-A47BC5D8E0F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Num</t>
   </si>
@@ -43,6 +43,9 @@
     <t>CommandlineTest - Load configuration with Script Formatting from PC_Matrix M300N</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>CommandlineTest - Verify simulator M300N_Matrix M300N</t>
   </si>
   <si>
@@ -52,13 +55,7 @@
     <t>CommandlineTest - Verify simulator M300N 772-010_Matrix M300N</t>
   </si>
   <si>
-    <t>TEST02-PC</t>
-  </si>
-  <si>
     <t>CommandlineTest - Verify simulator XRF_Matrix M300N</t>
-  </si>
-  <si>
-    <t>TestComplete14_</t>
   </si>
   <si>
     <t>TestExecute-PC</t>
@@ -905,13 +902,13 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="78.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -946,7 +943,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -960,10 +957,10 @@
         <v>244407</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -977,10 +974,10 @@
         <v>244405</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -994,10 +991,10 @@
         <v>244403</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -1014,7 +1011,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>

--- a/testSElenium/Data_Main.xlsx
+++ b/testSElenium/Data_Main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdo2\Desktop\Script Tool\Src\testSElenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360C24EA-6C8A-4ED0-8FB2-A47BC5D8E0F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05741551-A466-4676-96F1-813BAF46EEC1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Num</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>CommandlineTest - Verify simulator M300N 772-010_Matrix M300N</t>
+  </si>
+  <si>
+    <t>TEST02-PC</t>
   </si>
   <si>
     <t>CommandlineTest - Verify simulator XRF_Matrix M300N</t>
@@ -943,7 +946,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -960,7 +963,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -1008,7 +1011,7 @@
         <v>244401</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>

--- a/testSElenium/Data_Main.xlsx
+++ b/testSElenium/Data_Main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdo2\Desktop\Script Tool\Src\testSElenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05741551-A466-4676-96F1-813BAF46EEC1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6401357-57A2-4768-A94F-04CAA13F63B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Num</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>CommandlineTest - Verify simulator M300N 772-010_Matrix M300N</t>
-  </si>
-  <si>
-    <t>TEST02-PC</t>
   </si>
   <si>
     <t>CommandlineTest - Verify simulator XRF_Matrix M300N</t>
@@ -905,7 +902,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,7 +943,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -963,7 +960,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -1011,7 +1008,7 @@
         <v>244401</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>

--- a/testSElenium/Data_Main.xlsx
+++ b/testSElenium/Data_Main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdo2\Desktop\Script Tool\Src\testSElenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6401357-57A2-4768-A94F-04CAA13F63B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDD18D7-DBBC-439A-ABF2-B03B3CA6EBBD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Num</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>CommandlineTest - Verify simulator XRF_Matrix M300N</t>
-  </si>
-  <si>
-    <t>TestExecute-PC</t>
   </si>
 </sst>
 </file>
@@ -902,7 +899,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,7 +940,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -960,7 +957,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>

--- a/testSElenium/Data_Main.xlsx
+++ b/testSElenium/Data_Main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdo2\Desktop\Script Tool\Src\testSElenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDD18D7-DBBC-439A-ABF2-B03B3CA6EBBD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C4F5EC-FB6A-4454-9F54-0235D153ED26}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9450" yWindow="4560" windowWidth="14220" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Main" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Num</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>CommandlineTest - Verify simulator XRF_Matrix M300N</t>
+  </si>
+  <si>
+    <t>TestExecute-PC</t>
   </si>
 </sst>
 </file>
@@ -899,7 +902,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,7 +994,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>

--- a/testSElenium/Data_Main.xlsx
+++ b/testSElenium/Data_Main.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdo2\Desktop\Script Tool\Src\testSElenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C4F5EC-FB6A-4454-9F54-0235D153ED26}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1847F386-DCCC-48A7-93DC-4AE922B3F99A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9450" yWindow="4560" windowWidth="14220" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data_Main" sheetId="1" r:id="rId1"/>
+    <sheet name="1439" sheetId="1" r:id="rId1"/>
+    <sheet name="1472" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>Num</t>
   </si>
@@ -58,7 +59,43 @@
     <t>CommandlineTest - Verify simulator XRF_Matrix M300N</t>
   </si>
   <si>
-    <t>TestExecute-PC</t>
+    <t>TestComplete14_</t>
+  </si>
+  <si>
+    <t>CommandlineTest - User Role - Installer Basic - Verify Add delete channels on 3 pages (Reading Phase, Data Formatting, Output Setup)_Matrix M320</t>
+  </si>
+  <si>
+    <t>CommandlineTest - User Role - Installer Basic - Verify Add Delete Code_Matrix M320</t>
+  </si>
+  <si>
+    <t>CommandlineTest - User Role - Installer Basic - Verify Add Diagnostic, PassThrough, ImageSaving_Matrix M320</t>
+  </si>
+  <si>
+    <t>CommandlineTest - User Role - Installer Basic - Verify Code Autolearn 1D_Matrix M320</t>
+  </si>
+  <si>
+    <t>CommandlineTest - User Role - Installer Basic - Verify Code Autolearn 2D_Matrix M320</t>
+  </si>
+  <si>
+    <t>CommandlineTest - User Role - Installer Basic - Verify Focus Autolearn and Cropping Region_Matrix M320</t>
+  </si>
+  <si>
+    <t>CommandlineTest - User Role - Installer Basic - Verify Good Read Setup_Matrix M320</t>
+  </si>
+  <si>
+    <t>CommandlineTest - User Role - Installer Basic - Verify GUI_Matrix M320</t>
+  </si>
+  <si>
+    <t>CommandlineTest - User Role - Installer Basic - Verify Menubar - Device_Matrix M320</t>
+  </si>
+  <si>
+    <t>CommandlineTest - User Role - Installer Basic - Verify Monitor_Matrix M320</t>
+  </si>
+  <si>
+    <t>CommandlineTest - User Role - Installer Basic - Verify Reading distance_Matrix M320</t>
+  </si>
+  <si>
+    <t>CommandlineTest - User Role - Installer Basic - Verify Reading Phase 5 modes (cont, periodic, oneshot, phase, pactrack): save config and run_Matrix M320</t>
   </si>
 </sst>
 </file>
@@ -902,7 +939,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,7 +1014,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -1029,4 +1066,209 @@
     <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;2&amp;K0000FFDatalogic Confidential Internal</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9BA9FD-0E6C-4914-BB24-1A6CC339CDD3}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" activeCellId="1" sqref="C22 C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="140.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>244409</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>244407</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>244405</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>244403</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>244401</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;2&amp;K0000FFDatalogic Confidential Internal</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/testSElenium/Data_Main.xlsx
+++ b/testSElenium/Data_Main.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdo2\Desktop\Script Tool\Src\testSElenium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdo2\Desktop\ScriptTool\Src\testSElenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1847F386-DCCC-48A7-93DC-4AE922B3F99A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781E4F84-D622-4076-97A6-F96E05C7F711}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9450" yWindow="4560" windowWidth="14220" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1439" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Num</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>CommandlineTest - User Role - Installer Basic - Verify Reading Phase 5 modes (cont, periodic, oneshot, phase, pactrack): save config and run_Matrix M320</t>
+  </si>
+  <si>
+    <t>TestExecute-PC</t>
   </si>
 </sst>
 </file>
@@ -936,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,7 +952,7 @@
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -962,14 +965,8 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -980,13 +977,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -999,11 +993,8 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1014,13 +1005,10 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1031,13 +1019,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1048,10 +1033,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
